--- a/answers.xlsx
+++ b/answers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="235">
   <si>
     <t xml:space="preserve">1.1.2</t>
   </si>
@@ -701,6 +701,30 @@
   </si>
   <si>
     <t xml:space="preserve">  - J'utilisais un design compliqué pour implémenter la fonction detecteur de poids alors qu'il suffisait d'une seule variable (the_item dans le yaml)     - Deux scénarios parmis ceux proposé à la tache 2 ne passait pas, c'était à cause d'une conditions sur le timer &gt;= 1 à la place de &gt;1     - Source d'erreur, la porte doit être ouverte pour pouvoir mettre un objet alors que le signal est quand même envoyé si la porte est fermé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can we start cooking if door is open? ; can we set a negative timer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, 17 scenarios passed. Nice to have several colors, easier for the brain to “parse”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once you get used to the syntax, it looks like I can spend more time (and focus) on specifying requirements in a more structured and “human” way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All scenarios succeeded with the .feature you provided but I found one case that, I think, should fail but does not. Using the GUI with my .yaml implementation, while cooking, I open the door, the lamp turns on. Then I close the door, the lamp turns off but Heating is still “on”. In the given definition, the lamp should e on when heating but here, no scenario pointed that case out. I may be wrong though.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In “Door open” state, I did not send “heating_off”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using 2 separate states in “door closed” state allowed to run all scenarios with success which wasn’t the case when I tried to tweak the “door closed” state.</t>
   </si>
 </sst>
 </file>
@@ -801,15 +825,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BY13"/>
+  <dimension ref="A1:BY14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BY13" activeCellId="0" sqref="BY13"/>
+      <selection pane="topLeft" activeCell="BT12" activeCellId="0" sqref="BT12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,6 +3586,209 @@
         <v>89</v>
       </c>
       <c r="BX13" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF14" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG14" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ14" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK14" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN14" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO14" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP14" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ14" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU14" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX14" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AY14" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ14" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA14" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC14" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF14" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="BG14" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="BH14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI14" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ14" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM14" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="BN14" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="BP14" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR14" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="BV14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX14" s="0" t="s">
         <v>89</v>
       </c>
     </row>
